--- a/Unity/Assets/Config/Excel/RankRewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RankRewardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552CC3F5-2C9E-42D6-9C85-D2FBD81AA253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53BA40B-D2A5-4520-BAA7-52D7E911C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankRewardConfig" sheetId="1" r:id="rId1"/>
@@ -180,70 +180,70 @@
     <t>1;50000</t>
   </si>
   <si>
-    <t>1,100000@1000018,50@1020001,500@1000019,300@1010033,1@1000012,5</t>
-  </si>
-  <si>
-    <t>1,500000@1000018,40@1020001,300@1000019,240@1010033,1@1000012,3</t>
-  </si>
-  <si>
-    <t>1,300000@1000018,30@1020001,200@1000019,180@1010033,1@1000012,3</t>
-  </si>
-  <si>
-    <t>1,200000@1000018,25@1020001,150@1000019,150@1010032,1@1000012,2</t>
-  </si>
-  <si>
-    <t>1,150000@1000018,20@1020001,100@1000019,120@1010032,1@1000012,1</t>
-  </si>
-  <si>
-    <t>1,100000@1000018,15@1020001,90@1000019,90@1010032,1@</t>
-  </si>
-  <si>
-    <t>1,80000@1000018,10@1020001,80@1000019,60@1010032,1@</t>
-  </si>
-  <si>
-    <t>1,60000@1000018,5@1020001,70@1000019,40</t>
-  </si>
-  <si>
-    <t>1,50000@1000018,3@1020001,60@1000019,30</t>
-  </si>
-  <si>
-    <t>1,25000@1000018,2@1020001,40@1000019,20</t>
-  </si>
-  <si>
-    <t>1,10000@1000018,1@1020001,20@1000019,10</t>
-  </si>
-  <si>
-    <t>1,100000@1000001,50@1000028,50@1000027,50@1000020,6@1000035,1</t>
-  </si>
-  <si>
-    <t>1,500000@1000001,40@1000028,40@1000027,40@1000020,4@1000035,1</t>
-  </si>
-  <si>
-    <t>1,300000@1000001,30@1000028,30@1000027,30@1000020,3@1000035,1</t>
-  </si>
-  <si>
-    <t>1,200000@1000001,25@1000028,25@1000027,20@1000020,2@1000034,1</t>
-  </si>
-  <si>
-    <t>1,150000@1000001,20@1000028,20@1000027,10@1000020,2@1000034,1</t>
-  </si>
-  <si>
-    <t>1,100000@1000001,15@1000028,15@1000027,5@1000020,1</t>
-  </si>
-  <si>
-    <t>1,80000@1000001,10@1000028,10@1000027,5</t>
-  </si>
-  <si>
-    <t>1,60000@1000001,5@1000028,5@1000027,3</t>
-  </si>
-  <si>
-    <t>1,50000@1000001,3@1000028,3@1000027,2</t>
-  </si>
-  <si>
-    <t>1,25000@1000001,2@1000028,2@1000027,1</t>
-  </si>
-  <si>
-    <t>1,10000@1000001,1@1000028,1</t>
+    <t>1;100000@1000018;50@1020001;500@1000019;300@1010033;1@1000012;5</t>
+  </si>
+  <si>
+    <t>1;500000@1000018;40@1020001;300@1000019;240@1010033;1@1000012;3</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1020001;200@1000019;180@1010033;1@1000012;3</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;25@1020001;150@1000019;150@1010032;1@1000012;2</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;20@1020001;100@1000019;120@1010032;1@1000012;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1020001;90@1000019;90@1010032;1@</t>
+  </si>
+  <si>
+    <t>1;80000@1000018;10@1020001;80@1000019;60@1010032;1@</t>
+  </si>
+  <si>
+    <t>1;60000@1000018;5@1020001;70@1000019;40</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;3@1020001;60@1000019;30</t>
+  </si>
+  <si>
+    <t>1;25000@1000018;2@1020001;40@1000019;20</t>
+  </si>
+  <si>
+    <t>1;10000@1000018;1@1020001;20@1000019;10</t>
+  </si>
+  <si>
+    <t>1;100000@1000001;50@1000028;50@1000027;50@1000020;6@1000035;1</t>
+  </si>
+  <si>
+    <t>1;500000@1000001;40@1000028;40@1000027;40@1000020;4@1000035;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000001;30@1000028;30@1000027;30@1000020;3@1000035;1</t>
+  </si>
+  <si>
+    <t>1;200000@1000001;25@1000028;25@1000027;20@1000020;2@1000034;1</t>
+  </si>
+  <si>
+    <t>1;150000@1000001;20@1000028;20@1000027;10@1000020;2@1000034;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000001;15@1000028;15@1000027;5@1000020;1</t>
+  </si>
+  <si>
+    <t>1;80000@1000001;10@1000028;10@1000027;5</t>
+  </si>
+  <si>
+    <t>1;60000@1000001;5@1000028;5@1000027;3</t>
+  </si>
+  <si>
+    <t>1;50000@1000001;3@1000028;3@1000027;2</t>
+  </si>
+  <si>
+    <t>1;25000@1000001;2@1000028;2@1000027;1</t>
+  </si>
+  <si>
+    <t>1;10000@1000001;1@1000028;1</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/RankRewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RankRewardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53BA40B-D2A5-4520-BAA7-52D7E911C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81480B2A-4F60-47B0-A649-13CF26865AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RankRewardConfig" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -213,9 +213,6 @@
     <t>1;10000@1000018;1@1020001;20@1000019;10</t>
   </si>
   <si>
-    <t>1;100000@1000001;50@1000028;50@1000027;50@1000020;6@1000035;1</t>
-  </si>
-  <si>
     <t>1;500000@1000001;40@1000028;40@1000027;40@1000020;4@1000035;1</t>
   </si>
   <si>
@@ -244,6 +241,37 @@
   </si>
   <si>
     <t>1;10000@1000001;1@1000028;1</t>
+  </si>
+  <si>
+    <t>1;1000000@1000001;50@1000028;50@1000027;50@1000020;6@1000035;1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;500000@1000018;30@1010038;1@1000022;1@1010033;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;25@1010038;1@1000022;1</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;20@1010038;1@1000022;1</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;15@1010038;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;10@1010038;1</t>
+  </si>
+  <si>
+    <t>1;80000@1000018;5</t>
+  </si>
+  <si>
+    <t>1;60000@1000018;3</t>
+  </si>
+  <si>
+    <t>1;30000</t>
+  </si>
+  <si>
+    <t>1;20000</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I63"/>
+  <dimension ref="C1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1617,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1631,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1645,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1659,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1673,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1687,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1701,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1715,7 +1743,7 @@
         <v>51100</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1729,7 +1757,7 @@
         <v>101200</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,7 +1771,7 @@
         <v>201500</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1953,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1964,10 +1992,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1978,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2005,11 +2033,11 @@
       <c r="D46" s="6">
         <v>6</v>
       </c>
-      <c r="E46" s="10">
-        <v>51100</v>
+      <c r="E46" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2019,8 +2047,8 @@
       <c r="D47" s="6">
         <v>6</v>
       </c>
-      <c r="E47" s="10">
-        <v>101200</v>
+      <c r="E47" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>38</v>
@@ -2030,231 +2058,263 @@
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="6">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="D48" s="6">
-        <v>7</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="10">
+        <v>51100</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6">
-        <v>702</v>
+        <v>610</v>
       </c>
       <c r="D49" s="6">
-        <v>7</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E49" s="10">
+        <v>101200</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="6">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D50" s="6">
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="6">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D51" s="6">
         <v>7</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>21</v>
+      <c r="E51" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="6">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D52" s="6">
         <v>7</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>35</v>
+      <c r="E52" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="6">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D53" s="6">
         <v>7</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>17</v>
+      <c r="E53" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="6">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D54" s="6">
         <v>7</v>
       </c>
-      <c r="E54" s="10">
-        <v>51100</v>
+      <c r="E54" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="6">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D55" s="6">
         <v>7</v>
       </c>
-      <c r="E55" s="10">
-        <v>101200</v>
+      <c r="E55" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="6">
-        <v>801</v>
+        <v>707</v>
       </c>
       <c r="D56" s="6">
-        <v>8</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E56" s="10">
+        <v>51100</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="6">
-        <v>802</v>
+        <v>708</v>
       </c>
       <c r="D57" s="6">
-        <v>8</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E57" s="10">
+        <v>101200</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="6">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D58" s="6">
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="6">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D59" s="6">
         <v>8</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>21</v>
+      <c r="E59" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="6">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D60" s="6">
         <v>8</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>35</v>
+      <c r="E60" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="6">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D61" s="6">
         <v>8</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>17</v>
+      <c r="E61" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="6">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D62" s="6">
         <v>8</v>
       </c>
-      <c r="E62" s="10">
-        <v>51100</v>
+      <c r="E62" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D63" s="6">
         <v>8</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="6">
+        <v>807</v>
+      </c>
+      <c r="D64" s="6">
+        <v>8</v>
+      </c>
+      <c r="E64" s="10">
+        <v>51100</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="6">
+        <v>808</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8</v>
+      </c>
+      <c r="E65" s="10">
         <v>101200</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
